--- a/images/20240514/运营领域模型.xlsx
+++ b/images/20240514/运营领域模型.xlsx
@@ -7176,7 +7176,7 @@
   <dimension ref="C4:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/images/20240514/运营领域模型.xlsx
+++ b/images/20240514/运营领域模型.xlsx
@@ -71,6 +71,21 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
+          <t>如机器套餐，防止规则裂变</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
           <t>通过故意制造非标，验证度量的有效性，防止体系性劣化而不自知</t>
         </r>
       </text>
@@ -80,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="214">
   <si>
     <t>使用频次</t>
   </si>
@@ -1224,6 +1239,19 @@
   </si>
   <si>
     <t>覆盖SKU要多、结果要好、投入要省(长期持续)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审阅配置(半年)</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'z</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ban'nian</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3732,10 +3760,10 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>20782</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4914102" cy="1238801"/>
+    <xdr:ext cx="4914102" cy="1429879"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
@@ -3743,8 +3771,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2006600" y="4491182"/>
-          <a:ext cx="4914102" cy="1238801"/>
+          <a:off x="2016369" y="4739320"/>
+          <a:ext cx="4914102" cy="1429879"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3905,6 +3933,34 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>、类似科学实验，演练的哲学基础是可证伪性，演练不通过则系统一定无效</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、参考三权分立，演练由独立第三者实施</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7173,10 +7229,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:H25"/>
+  <dimension ref="C4:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7298,30 +7354,37 @@
       <c r="C16" s="22"/>
       <c r="D16" s="26"/>
       <c r="H16" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="22"/>
+      <c r="D17" s="26"/>
+      <c r="H17" s="24" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D17" s="26"/>
-    </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F19" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G19" s="27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D25" s="26"/>
-      <c r="H25" s="24"/>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D26" s="26"/>
+      <c r="H26" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/images/20240514/运营领域模型.xlsx
+++ b/images/20240514/运营领域模型.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niean/blog/niean.github.io/images/20240514/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A4E274-97FD-D94D-87CB-4B30ABDEA393}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资源生命周期-废弃" sheetId="1" state="hidden" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="交付场景-old" sheetId="11" state="hidden" r:id="rId3"/>
     <sheet name="运营架构" sheetId="13" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="R6" authorId="0">
+    <comment ref="R6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,12 +56,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="H16" authorId="0">
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0">
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1082,13 +1083,6 @@
     <t>记录</t>
     <rPh sb="0" eb="1">
       <t>ji'lu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审阅</t>
-    <rPh sb="0" eb="1">
-      <t>shen'yue</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1254,12 +1248,19 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>审阅+抽查</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1928,6 +1929,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1949,7 +1953,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直线箭头连接符 1"/>
+        <xdr:cNvPr id="2" name="直线箭头连接符 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2003,7 +2013,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直线箭头连接符 2"/>
+        <xdr:cNvPr id="3" name="直线箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2057,7 +2073,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直线箭头连接符 3"/>
+        <xdr:cNvPr id="4" name="直线箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2111,7 +2133,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直线箭头连接符 4"/>
+        <xdr:cNvPr id="5" name="直线箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2165,7 +2193,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直线箭头连接符 5"/>
+        <xdr:cNvPr id="6" name="直线箭头连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2219,7 +2253,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直线箭头连接符 6"/>
+        <xdr:cNvPr id="7" name="直线箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2268,7 +2308,13 @@
     <xdr:ext cx="415498" cy="248594"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="文本框 7"/>
+        <xdr:cNvPr id="8" name="文本框 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2325,7 +2371,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="弧 8"/>
+        <xdr:cNvPr id="9" name="弧 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2382,7 +2434,13 @@
     <xdr:ext cx="415498" cy="404854"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="文本框 9"/>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2446,7 +2504,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直线箭头连接符 10"/>
+        <xdr:cNvPr id="11" name="直线箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2491,7 +2555,13 @@
     <xdr:ext cx="697627" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="文本框 11"/>
+        <xdr:cNvPr id="12" name="文本框 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2552,7 +2622,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直线箭头连接符 12"/>
+        <xdr:cNvPr id="13" name="直线箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2602,7 +2678,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直线箭头连接符 13"/>
+        <xdr:cNvPr id="14" name="直线箭头连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2647,7 +2729,13 @@
     <xdr:ext cx="595035" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="文本框 14"/>
+        <xdr:cNvPr id="15" name="文本框 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2703,7 +2791,13 @@
     <xdr:ext cx="595035" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="文本框 15"/>
+        <xdr:cNvPr id="16" name="文本框 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2764,7 +2858,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直线箭头连接符 16"/>
+        <xdr:cNvPr id="17" name="直线箭头连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2809,7 +2909,13 @@
     <xdr:ext cx="697627" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="文本框 17"/>
+        <xdr:cNvPr id="18" name="文本框 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2870,7 +2976,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直线箭头连接符 18"/>
+        <xdr:cNvPr id="19" name="直线箭头连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2915,7 +3027,13 @@
     <xdr:ext cx="697627" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="文本框 19"/>
+        <xdr:cNvPr id="20" name="文本框 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2976,7 +3094,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直线箭头连接符 20"/>
+        <xdr:cNvPr id="21" name="直线箭头连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3021,7 +3145,13 @@
     <xdr:ext cx="812145" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="文本框 21"/>
+        <xdr:cNvPr id="22" name="文本框 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3077,7 +3207,13 @@
     <xdr:ext cx="415498" cy="196592"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="文本框 22"/>
+        <xdr:cNvPr id="23" name="文本框 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3135,7 +3271,13 @@
     <xdr:ext cx="486223" cy="196592"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="文本框 23"/>
+        <xdr:cNvPr id="24" name="文本框 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3205,7 +3347,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直线箭头连接符 24"/>
+        <xdr:cNvPr id="25" name="直线箭头连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3250,7 +3398,13 @@
     <xdr:ext cx="595035" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="文本框 25"/>
+        <xdr:cNvPr id="26" name="文本框 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3306,7 +3460,13 @@
     <xdr:ext cx="492443" cy="300852"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="文本框 26"/>
+        <xdr:cNvPr id="27" name="文本框 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3383,7 +3543,13 @@
     <xdr:ext cx="492443" cy="300852"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="文本框 27"/>
+        <xdr:cNvPr id="28" name="文本框 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3460,7 +3626,13 @@
     <xdr:ext cx="492443" cy="300852"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="文本框 28"/>
+        <xdr:cNvPr id="29" name="文本框 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3537,7 +3709,13 @@
     <xdr:ext cx="492443" cy="196592"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="文本框 29"/>
+        <xdr:cNvPr id="30" name="文本框 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3595,7 +3773,13 @@
     <xdr:ext cx="492443" cy="196592"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="文本框 30"/>
+        <xdr:cNvPr id="31" name="文本框 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3653,7 +3837,13 @@
     <xdr:ext cx="492443" cy="196592"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="文本框 31"/>
+        <xdr:cNvPr id="32" name="文本框 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3716,7 +3906,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直线箭头连接符 32"/>
+        <xdr:cNvPr id="33" name="直线箭头连接符 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3766,7 +3962,13 @@
     <xdr:ext cx="4914102" cy="1429879"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4232,14 +4434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="9.5" bestFit="1" customWidth="1"/>
@@ -4257,7 +4459,7 @@
     <col min="24" max="24" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="C1" s="32" t="s">
         <v>82</v>
       </c>
@@ -4281,7 +4483,7 @@
       <c r="T1" s="32"/>
       <c r="U1" s="32"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" s="29"/>
       <c r="B3" s="29"/>
       <c r="C3" s="31" t="s">
@@ -4322,7 +4524,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -4391,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4459,7 +4661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -4524,7 +4726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4589,7 +4791,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4654,7 +4856,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -4722,7 +4924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -4787,7 +4989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -4852,7 +5054,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -4918,7 +5120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -4983,7 +5185,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -5048,7 +5250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -5113,7 +5315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5179,7 +5381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5245,7 +5447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5311,7 +5513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -5377,7 +5579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -5443,7 +5645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -5508,7 +5710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -5573,7 +5775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -5639,7 +5841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -5705,7 +5907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -5771,7 +5973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -5837,7 +6039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -5903,7 +6105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -5969,7 +6171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -6034,7 +6236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -6102,7 +6304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -6170,7 +6372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -6238,7 +6440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -6323,14 +6525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
@@ -6343,7 +6545,7 @@
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="11" t="s">
         <v>83</v>
       </c>
@@ -6372,7 +6574,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="33" t="s">
         <v>88</v>
       </c>
@@ -6393,7 +6595,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="33"/>
       <c r="B3" s="13" t="s">
         <v>92</v>
@@ -6414,7 +6616,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="33"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6433,7 +6635,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="33"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -6450,7 +6652,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="33"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6467,7 +6669,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="33"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -6484,7 +6686,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="33"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -6499,7 +6701,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="33"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -6514,7 +6716,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="33" t="s">
         <v>113</v>
       </c>
@@ -6541,7 +6743,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="33"/>
       <c r="B11" s="4" t="s">
         <v>165</v>
@@ -6563,7 +6765,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="33"/>
       <c r="B12" s="4" t="s">
         <v>124</v>
@@ -6583,7 +6785,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="33"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -6598,7 +6800,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="33"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -6611,7 +6813,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="33"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -6624,7 +6826,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="33"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -6637,7 +6839,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="33"/>
       <c r="B17" s="4"/>
       <c r="C17" s="6" t="s">
@@ -6652,7 +6854,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="33" t="s">
         <v>135</v>
       </c>
@@ -6671,7 +6873,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="33"/>
       <c r="B19" s="4" t="s">
         <v>139</v>
@@ -6686,7 +6888,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="33" t="s">
         <v>141</v>
       </c>
@@ -6711,7 +6913,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="33"/>
       <c r="B21" s="4" t="s">
         <v>148</v>
@@ -6730,7 +6932,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="33"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -6745,7 +6947,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="33"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -6758,17 +6960,17 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>173</v>
       </c>
@@ -6787,14 +6989,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" customWidth="1"/>
@@ -6804,7 +7006,7 @@
     <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -6817,7 +7019,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="19" t="s">
@@ -6837,7 +7039,7 @@
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -6850,7 +7052,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="16"/>
       <c r="B4" s="20" t="s">
         <v>155</v>
@@ -6873,7 +7075,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="16"/>
       <c r="B5" s="35"/>
       <c r="C5" s="16"/>
@@ -6886,7 +7088,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="16"/>
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
@@ -6899,7 +7101,7 @@
       <c r="J6" s="17"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="16"/>
       <c r="B7" s="20" t="s">
         <v>156</v>
@@ -6922,7 +7124,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="16"/>
       <c r="B8" s="35"/>
       <c r="C8" s="16"/>
@@ -6935,7 +7137,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="16"/>
       <c r="B9" s="35"/>
       <c r="C9" s="16"/>
@@ -6948,7 +7150,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="16"/>
       <c r="B10" s="20" t="s">
         <v>180</v>
@@ -6971,7 +7173,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="16"/>
       <c r="B11" s="35"/>
       <c r="C11" s="16"/>
@@ -6984,7 +7186,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="16"/>
       <c r="B12" s="35"/>
       <c r="C12" s="16"/>
@@ -6997,7 +7199,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="16"/>
       <c r="B13" s="20" t="s">
         <v>178</v>
@@ -7020,7 +7222,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="16"/>
       <c r="B14" s="35"/>
       <c r="C14" s="16"/>
@@ -7033,7 +7235,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="16"/>
       <c r="B15" s="35"/>
       <c r="C15" s="16"/>
@@ -7046,7 +7248,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="16"/>
       <c r="B16" s="20" t="s">
         <v>177</v>
@@ -7069,7 +7271,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="16"/>
       <c r="B17" s="35"/>
       <c r="C17" s="16"/>
@@ -7082,7 +7284,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="16"/>
       <c r="B18" s="35"/>
       <c r="C18" s="16"/>
@@ -7095,7 +7297,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="16"/>
       <c r="B19" s="20" t="s">
         <v>179</v>
@@ -7118,7 +7320,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="16"/>
       <c r="B20" s="35"/>
       <c r="C20" s="16"/>
@@ -7131,7 +7333,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="16"/>
       <c r="B21" s="35"/>
       <c r="C21" s="16"/>
@@ -7144,7 +7346,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="16"/>
       <c r="B22" s="20" t="s">
         <v>157</v>
@@ -7167,7 +7369,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -7180,7 +7382,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -7195,7 +7397,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -7208,7 +7410,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="H27" s="1"/>
     </row>
   </sheetData>
@@ -7228,14 +7430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C4:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" customWidth="1"/>
@@ -7245,15 +7447,15 @@
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8">
       <c r="C4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
       <c r="C6" s="3" t="s">
         <v>196</v>
       </c>
@@ -7268,12 +7470,12 @@
         <v>193</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
       <c r="C8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E8" t="s">
         <v>183</v>
@@ -7285,10 +7487,10 @@
         <v>185</v>
       </c>
       <c r="H8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
       <c r="E9" t="s">
         <v>184</v>
       </c>
@@ -7299,10 +7501,10 @@
         <v>199</v>
       </c>
       <c r="H9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
       <c r="C11" s="3" t="s">
         <v>198</v>
       </c>
@@ -7316,7 +7518,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8">
       <c r="C12" s="22"/>
       <c r="D12" s="26" t="s">
         <v>191</v>
@@ -7325,7 +7527,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8">
       <c r="C13" s="22"/>
       <c r="D13" s="26" t="s">
         <v>194</v>
@@ -7334,55 +7536,55 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8">
       <c r="C14" s="22"/>
       <c r="D14" s="26" t="s">
         <v>195</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
       <c r="C15" s="22"/>
       <c r="D15" s="26"/>
       <c r="H15" s="24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
       <c r="C16" s="22"/>
       <c r="D16" s="26"/>
       <c r="H16" s="24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
       <c r="C17" s="22"/>
       <c r="D17" s="26"/>
       <c r="H17" s="24" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
       <c r="D18" s="26"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:8" ht="17">
       <c r="C19" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="G19" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="G19" s="27" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="3:8">
       <c r="D26" s="26"/>
       <c r="H26" s="24"/>
     </row>

--- a/images/20240514/运营领域模型.xlsx
+++ b/images/20240514/运营领域模型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niean/blog/niean.github.io/images/20240514/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A4E274-97FD-D94D-87CB-4B30ABDEA393}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F454ADB8-B32E-C846-BCF5-1620A641546B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,33 +61,33 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="11"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>通过故意制造非标，验证度量的有效性，防止体系性劣化而不自知</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{808787CC-2F0F-8742-B97C-BF52B4B9A99C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t>如机器套餐，防止规则裂变</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>通过故意制造非标，验证度量的有效性，防止体系性劣化而不自知</t>
         </r>
       </text>
     </comment>
@@ -972,13 +972,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>白名单</t>
-    <rPh sb="0" eb="1">
-      <t>bai'ming'dan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SOP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1094,32 +1087,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>审阅治理记录(周)</t>
-    <rPh sb="2" eb="3">
-      <t>zhi'li</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ji'lu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhou</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审阅白名单(季)</t>
-    <rPh sb="0" eb="1">
-      <t>shen'yue</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bai'ming'dan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ji'du</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>演练</t>
     <rPh sb="0" eb="1">
       <t>yan'lian</t>
@@ -1144,6 +1111,117 @@
     <t>组织</t>
     <rPh sb="0" eb="1">
       <t>zu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题驱动完善规则</t>
+    <rPh sb="0" eb="1">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wan'shan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gui'ze</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>演练验证度量之有效</t>
+    <rPh sb="0" eb="1">
+      <t>yan'lian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan'zheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>du'liang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you'xiao'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审阅记录确保执行到位</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'lu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>que'bao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dao'wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖SKU要多、结果要好、投入要省(长期持续)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审阅+抽查</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例外(白名单)</t>
+    <rPh sb="0" eb="1">
+      <t>bai'ming'dan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治理记录(月)</t>
+    <rPh sb="2" eb="3">
+      <t>zhi'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'lu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白名单(季)</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bai'ming'dan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置(半年)</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'z</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ban'nian</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1156,7 +1234,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>演练验收</t>
+      <t>演练验收(半年</t>
     </r>
     <r>
       <rPr>
@@ -1167,91 +1245,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(季)</t>
+      <t>)</t>
     </r>
     <rPh sb="0" eb="1">
       <t>yan'lian</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>ji'du</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题驱动完善规则</t>
-    <rPh sb="0" eb="1">
-      <t>wen'ti</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qu'dong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wan'shan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gui'ze</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>演练验证度量之有效</t>
-    <rPh sb="0" eb="1">
-      <t>yan'lian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yan'zheng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>du'liang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>you'xiao'xing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审阅记录确保执行到位</t>
-    <rPh sb="0" eb="1">
-      <t>shen'yue</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'lu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>que'bao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhi'xing</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dao'wei</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>覆盖SKU要多、结果要好、投入要省(长期持续)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审阅配置(半年)</t>
-    <rPh sb="0" eb="1">
-      <t>shen'yue</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pei'z</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ban'nian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审阅+抽查</t>
-    <rPh sb="0" eb="1">
-      <t>shen'yue</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1260,7 +1260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1415,6 +1415,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1664,7 +1688,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1739,6 +1763,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="181">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3954,12 +3980,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>20782</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>785445</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1243</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4914102" cy="1429879"/>
+    <xdr:ext cx="8109784" cy="2385268"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1">
@@ -3973,8 +3999,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2016369" y="4739320"/>
-          <a:ext cx="4914102" cy="1429879"/>
+          <a:off x="1615830" y="4319243"/>
+          <a:ext cx="8109784" cy="2385268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4003,6 +4029,182 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>原则</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> 高阶打样：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>制度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>运营模型建设，第一次高阶必须介入打样，磨合出可监督的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>之后再交给低阶执行；低阶不为运营模型负责</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> 独立验收：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>制度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>由三方人员独立验收，避免负责人</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>监守自盗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>允许例外：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>平台</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>业务有不入标准体系的权利，运维要有判断和加白的能力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> 精益运营：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>意识</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>运营驱动开发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100"/>
+            <a:t>ODD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en" sz="1100"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>研发人员应立足长期</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(4+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、关注整个生命周期的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100"/>
+            <a:t>ROI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en" sz="1100"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>求快更要求质</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>教训</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -4027,42 +4229,15 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、高阶缺席顶层设计，如抽象规则、制定</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>SOP</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、过分重视平台，错把手段当目标</a:t>
+            <a:t>过分重视平台，错把手段当目标</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -4130,11 +4305,15 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、类似科学实验，演练的哲学基础是可证伪性，演练不通过则系统一定无效</a:t>
+            <a:t>类似科学实验，演练的哲学基础是可证伪性，演练不通过则系统一定无效</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -4158,11 +4337,15 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>2</a:t>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、参考三权分立，演练由独立第三者实施</a:t>
+            <a:t>参考三权分立，演练由独立第三者实施</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7433,8 +7616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C4:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7449,15 +7632,15 @@
   <sheetData>
     <row r="4" spans="3:8">
       <c r="C4" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="25" t="s">
@@ -7467,103 +7650,103 @@
         <v>182</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E8" t="s">
         <v>183</v>
       </c>
       <c r="F8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="3:8">
       <c r="E9" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D11" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" t="s">
         <v>187</v>
       </c>
-      <c r="E11" t="s">
-        <v>188</v>
-      </c>
       <c r="G11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="22"/>
       <c r="D12" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="22"/>
       <c r="D13" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="22"/>
       <c r="D14" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="22"/>
       <c r="D15" s="26"/>
-      <c r="H15" s="24" t="s">
-        <v>202</v>
+      <c r="H15" s="36" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="22"/>
       <c r="D16" s="26"/>
-      <c r="H16" s="24" t="s">
-        <v>212</v>
+      <c r="H16" s="37" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="22"/>
       <c r="D17" s="26"/>
-      <c r="H17" s="24" t="s">
-        <v>207</v>
+      <c r="H17" s="37" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="3:8">
@@ -7571,17 +7754,17 @@
     </row>
     <row r="19" spans="3:8" ht="17">
       <c r="C19" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="3:8">
